--- a/game-manage/src/main/resources/biz_config/K_daba.xlsx
+++ b/game-manage/src/main/resources/biz_config/K_daba.xlsx
@@ -19,47 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemgailv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填入道具id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guanggao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zongtime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>10;20</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,14 +74,6 @@
     <t>time2</t>
   </si>
   <si>
-    <t>num命中值-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中num的值*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jiangli2time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,6 +83,18 @@
   </si>
   <si>
     <t>cishu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,18 +134,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -196,12 +150,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,52 +166,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -272,21 +178,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -567,165 +465,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:V1048576"/>
+      <selection activeCell="N1" sqref="N1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="14.25" style="1"/>
+    <col min="1" max="1" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="14.25" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="M1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="G2" s="5">
+        <v>100</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5">
+        <v>50</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="9" t="s">
+      <c r="M2" s="5">
         <v>1</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1">
-        <v>100</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="1">
-        <v>50</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="T2" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="U2" s="6">
-        <v>0.3</v>
       </c>
     </row>
   </sheetData>
